--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7601557224.837046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003081690518055278</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.918383881345364</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9083837310935419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.918383881345364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5737104849.628524</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00478814901235295</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.553218064720149</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9731320429170771</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.553218064720149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5580423392.005179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003473424680287245</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.536046591754043</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9850330024127233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.536046591754043</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>5022384206.11644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003886063316254554</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.419197320785554</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7701798845871162</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.419197320785554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5918870934.663737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002278921795239626</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.15295856048923</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7925467335690584</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.15295856048923</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7797891395.305714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001133696127744131</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.547861395709295</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9796413982034059</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.547861395709295</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7183845861.124974</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002613264469371292</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.487465284931852</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9742199558136878</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.487465284931852</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6863197370.469615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004709446131549312</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.681842862788582</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9627370088239174</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.681842862788582</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2946066664.790416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00550643060585784</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.549780940741834</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.001033593915371</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.549780940741834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3830510567.621819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001214686045467367</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.540894031048449</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7499739215876664</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.540894031048449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8176624233.85613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001936171283232861</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1044863029867957</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.68103805910937</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.1923401799882416</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.68103805910937</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4292653378.238261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003303292853149346</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.966906451355446</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.034338555469235</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.966906451355446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7349293590.646709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003299561799849898</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.989418242941926</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8659995929141789</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.989418242941926</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5161462746.191591</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003766839688795883</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.259152693107611</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9610808196648419</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.259152693107611</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8370150984.505931</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003976552822470118</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.65777452660949</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.919973958645615</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.65777452660949</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4677657707.677036</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002216087173375914</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.498107390771834</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9753066551907067</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.498107390771834</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4779962529.352623</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008974321551613052</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.765982359784403</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9951979847090848</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.765982359784403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3935729272.939648</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001524533902675702</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.004659999778283</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9019488763435121</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.004659999778283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5582429169.480795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.000866996089653778</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.516067122493103</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.857397829240291</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.516067122493103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7320952552.649517</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004356022559166031</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.164381164204684</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8561582214160205</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.164381164204684</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5163947272.795238</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004086226416727187</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.917592997769937</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.910719099333523</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.917592997769937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7807319740.408234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.0016842542450781</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.524074383053039</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9211246571120241</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.524074383053039</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5758943663.809546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003416316782041223</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.090186308574486</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7553048552.616421</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003474903853368547</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.058889955631422</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9019488763435121</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.058889955631422</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4578373342.173395</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001025601218537926</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942154</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.42041323825612</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8629378399458466</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.42041323825612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7006677440.194286</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002912998490767297</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.612824333703836</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9561096505648314</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.612824333703836</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7132298483.068738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004429564474733355</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9471796735854403</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.325245174414576</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.189283060162613</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.325245174414576</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6279062855.693474</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001126612422232122</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1347290158574295</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.693998570969305</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.3152222446992751</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.693998570969305</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5575279666.257345</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003936741862603513</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9504429536167681</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.458918007787608</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.260817989584672</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.458918007787608</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5823897973.652858</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002484593571545925</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.071845124047089</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9621823586416997</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.071845124047089</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4163661920.835328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001188881773823584</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.04925570429510887</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.875858287965772</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.2985095252577786</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.875858287965772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7751206442.554616</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002160687330028121</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7944781271465752</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.092633494842491</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.029671538852083</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.092633494842491</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4945002559.964981</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004044405903433077</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8829644172597687</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5687003736.609575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001933250538762822</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.807717488905013</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.007889686926572</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.807717488905013</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7241945673.588133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002850726129419716</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.59237135424029</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9671223135186906</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.59237135424029</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5256144936.188113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004633629868139354</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2929367427374823</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.762122181912027</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7020846927213561</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.762122181912027</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4698692814.946293</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003398605713018752</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.916731012205742</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8925039947854821</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.916731012205742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4611041295.72078</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002791365969125335</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8511288473896242</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.773374794131078</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.156701716219807</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.773374794131078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5123431665.741709</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004567115682076166</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.004106125322398</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.063129007275497</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-8.004106125322398</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5748334235.350554</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001497213491995273</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.599865087938688</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9621852625224334</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.599865087938688</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6240166482.656448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005274787225546402</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.476661457409223</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.029207990979444</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.476661457409223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6940296072.191809</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004618444148128537</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.698524677531853</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9698609822500254</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.698524677531853</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5951706679.93213</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00181260857344451</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.118708131604727</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9399063273582661</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.118708131604727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5024669476.545181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001216460660649455</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
         <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.861688668708649</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.00314772334609</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.861688668708649</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9081999253.903023</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004381973835446141</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8124326872463231</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.613895417633854</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.076393869278102</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-4.613895417633854</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7470407627.865516</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003074088518512804</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.496034817951244</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.948882441175641</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-5.496034817951244</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5406383304.788967</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003308587162376417</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.861821045391625</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.004731791550344</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.861821045391625</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4950304396.159417</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005448713369350065</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.727884086828544</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8380245464204158</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.727884086828544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6539915482.607228</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002889359998413667</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.651764070578253</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.029207990979444</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.651764070578253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5269922814.641469</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005654417284980701</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.066322163980309</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9533344095604774</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.066322163980309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7377971238.109539</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002065585003627762</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.521399959349272</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8678340354152073</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.521399959349272</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7308435466.480252</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002856876844065679</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.60382247792752</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9382157930053426</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.60382247792752</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4885907801.215819</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005137809273681807</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.515786130822837</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8084296538777901</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.515786130822837</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6661682215.182309</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003705302206009915</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.579858957533651</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9348225640107666</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.579858957533651</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6004772819.630882</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002407095028237544</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.614586900332871</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9588768593278199</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.614586900332871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8107184123.827829</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00366135992665995</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.546263473158305</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8455779234696016</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.546263473158305</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6131877042.113781</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001833642317719229</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8661026576473323</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.919252188203611</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.018717254205705</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.919252188203611</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7735002273.498104</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00375977469234225</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9518587920832922</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.960878596569092</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.232377643593439</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.960878596569092</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5062528298.48882</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003512935701153343</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.466846703723473</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8567782495150675</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.466846703723473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5232744084.364271</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005410787980068908</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.670413520188169</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9555540775693148</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.670413520188169</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4399593303.762225</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003118714326952851</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6.160152473587511</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9274294848946218</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-6.160152473587511</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8821448105.753984</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003733245269902439</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.550983849062011</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9483226341428238</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.550983849062011</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4350179600.297002</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003453939148644488</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9569803151457742</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.53833586236991</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.272764289541946</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-5.53833586236991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6922011028.612503</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005906856043912383</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.039362249320216</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.028691897485386</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.039362249320216</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6478950109.180339</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002991906200455884</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.632063444972461</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8530578718041724</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.632063444972461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5513397029.181394</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00430676449442875</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.901875101323848</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9505569447797242</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.901875101323848</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8425037981.26073</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003153869070474343</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5853891089381037</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.865308436501443</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7612027659374694</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.865308436501443</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4506298058.411658</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001201589308387455</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.651752246665759</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.005257406618705</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.651752246665759</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7629925083.828949</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003911584292644122</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.630489051629352</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9583258061560189</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.630489051629352</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3588688919.065372</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002722243112256849</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.766901541952623</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8763397438406654</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.766901541952623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7700122484.066186</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001632199706111541</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.81070455119157</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.127912271768423</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.81070455119157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6265727742.117128</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0008863258490019961</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.795175895317848</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.022497585309708</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.795175895317848</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6573970968.319324</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003399457587538662</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.74995019039951</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9583258061560189</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.74995019039951</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6414830660.310316</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003290543932205238</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.381550571407265</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7811052742440698</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.381550571407265</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6534028305.107718</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002297387951120072</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.67799857334859</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9561096505648314</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.67799857334859</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6885313069.675479</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003906712386593914</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.618488124099918</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.010512345461481</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.618488124099918</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5840162188.944367</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003998347601322417</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.615539536023711</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9753066551907067</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.615539536023711</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7657955799.078333</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001934257246437646</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.511927180492862</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9527801508439521</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.511927180492862</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6201676557.590758</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003172540291933814</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1963747884760534</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.295775019147691</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.4210034536739801</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.295775019147691</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7699133472.197628</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003427565225913047</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.739971279458334</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.024567426122607</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.739971279458334</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7716683004.570855</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004253169900106712</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.657987574235733</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9577715186832003</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.657987574235733</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7000483830.382215</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002617736101088845</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8671682498068944</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.928666830361474</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.136170670287362</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.928666830361474</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5704763361.757596</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005085695577103454</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.117496541681829</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.971806270417435</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.01676863696128761</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.971806270417435</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5542135384.369124</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002730051118356324</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.529371970565076</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9505540053752358</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.529371970565076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8352649311.597638</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002741498805693216</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1959992254039232</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.262179657045426</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4307342695210426</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.262179657045426</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3186017228.118493</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001485557492855775</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2705346215419558</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.283522588807327</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.487522690321881</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.283522588807327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7881259651.390343</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004666758554588367</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.522165951053077</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8629378399458466</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.522165951053077</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6265971803.529947</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004443878256525938</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.104077543590499</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9274264721894907</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.104077543590499</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4604717050.687392</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002278279192983897</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.518218399282033</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9583228905804787</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.518218399282033</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6213365450.244226</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004396352824431652</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.681070857386549</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8787539162598612</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.681070857386549</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5171792744.453523</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002937701249696005</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.072156817127748</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.024046265455612</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.072156817127748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6035383108.661654</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001193220953482397</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.613045219361278</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.5590169943749475</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.613045219361278</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7098024815.00654</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001463137898628156</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>7.866545713831673</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.071070343600206</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-7.866545713831673</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7699076421.730935</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002709405387134751</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.522778305903291</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.924568159737682</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.522778305903291</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9479803256.852169</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002394101115508019</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.049391984783987</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9376496176615143</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-4.049391984783987</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6612660176.221815</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004512332570682356</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.720003619801319</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9399093000615345</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.720003619801319</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9060349433.03993</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004523038584180896</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.815244525814676</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8399200905447276</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.815244525814676</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2568214849.975085</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004501045064193406</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.047182198004557</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.299810727382406</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.047182198004557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5510743822.534093</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003536424459824961</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.930359538416675</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7972161750929815</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.930359538416675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7075746609.057268</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001671834631857255</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5472487177793353</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.873460906954721</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9176682330116717</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.873460906954721</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7601557224.837046</v>
+        <v>1766746826.624039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003081690518055278</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.08226378707038573</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04053465578340477</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>883373377.2979141</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5737104849.628524</v>
+        <v>2334209767.328322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00478814901235295</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1350833201151505</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03118482526202928</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1167104975.175175</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5580423392.005179</v>
+        <v>4848514382.05571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003473424680287245</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>0.1507075843747647</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0360821908990847</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2424257265.022003</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>5022384206.11644</v>
+        <v>3104683581.486868</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003886063316254554</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1060948538451627</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05068002903605277</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1552341853.284095</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5918870934.663737</v>
+        <v>2810772929.625237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002278921795239626</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>0.1193293577347466</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0360039387605462</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1405386406.356484</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7797891395.305714</v>
+        <v>2559877999.09125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001133696127744131</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>0.07724497431653871</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04809649198407522</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1279939006.487536</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7183845861.124974</v>
+        <v>2400963097.374837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002613264469371292</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.152120370200443</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02153484566052311</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1200481544.641716</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6863197370.469615</v>
+        <v>1423643055.981505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004709446131549312</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1651437607728747</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02626726487810529</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>711821634.2389027</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>2946066664.790416</v>
+        <v>5441379185.991182</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00550643060585784</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.212293027667516</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04976922633129701</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2720689726.174743</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3830510567.621819</v>
+        <v>4208725907.101011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001214686045467367</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1908149768889077</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04572833659233538</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2104362980.53159</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8176624233.85613</v>
+        <v>2015686428.440979</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001936171283232861</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
+        <v>0.1926601199722397</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05275288265627145</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1007843141.733174</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4145002113.644402</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06333741326789402</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02302638279279318</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4292653378.238261</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.003303292853149346</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2072501104.090168</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7349293590.646709</v>
+        <v>2548624800.442137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003299561799849898</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>0.1444369669014135</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04354134840739126</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1274312467.101947</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5161462746.191591</v>
+        <v>1752853364.575616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003766839688795883</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>0.08972020478827604</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0469421575063415</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>876426824.8169817</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8370150984.505931</v>
+        <v>2396403703.85447</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003976552822470118</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
+        <v>0.1009883767621713</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04295786373371538</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1198201891.676145</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4677657707.677036</v>
+        <v>5260902534.710891</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002216087173375914</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
+        <v>0.1136266948148629</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04682223379935822</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2630451239.286698</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4779962529.352623</v>
+        <v>3163023752.932603</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008974321551613052</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
+        <v>0.1282576499103587</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02140553766505985</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1581511894.619766</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3935729272.939648</v>
+        <v>883692754.9002677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001524533902675702</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1870176211325336</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02621332362418649</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>441846378.1310714</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5582429169.480795</v>
+        <v>1764537156.707189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000866996089653778</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1369831422767463</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02650436143499846</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>882268629.4165541</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7320952552.649517</v>
+        <v>2423976765.634023</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004356022559166031</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
+        <v>0.06835648071934573</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04093900855701519</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1211988377.946306</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5163947272.795238</v>
+        <v>2461706857.432396</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004086226416727187</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1274047449067116</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03925774836830589</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1230853522.182834</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7807319740.408234</v>
+        <v>979052392.8458724</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0016842542450781</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
+        <v>0.1670982722739817</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04315932989556406</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>489526269.8946419</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5758943663.809546</v>
+        <v>3217847576.549134</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003416316782041223</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>0.09159884499884677</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0227338866516344</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1608923808.535696</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7553048552.616421</v>
+        <v>1252964316.616964</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003474903853368547</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.1057508417382756</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02276585108481161</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>626482163.7137982</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4578373342.173395</v>
+        <v>1210557191.855753</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001025601218537926</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08596983952533144</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03513148104405458</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>605278619.2325065</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7006677440.194286</v>
+        <v>3941546892.763415</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002912998490767297</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1354654220930843</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01902335927845353</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>4</v>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1970773459.129284</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7132298483.068738</v>
+        <v>2985036831.183327</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004429564474733355</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+        <v>0.1349667636942262</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04420667613982748</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1492518425.214965</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6279062855.693474</v>
+        <v>4246430375.742744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001126612422232122</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.1030128371945247</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02965466343723201</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2123215187.384659</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5575279666.257345</v>
+        <v>1510892695.041706</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003936741862603513</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
+        <v>0.1199771151035482</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03036805474875383</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>755446329.0193603</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5823897973.652858</v>
+        <v>1480049015.678334</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002484593571545925</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.1076618505944019</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05096835958459768</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>740024393.041864</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4163661920.835328</v>
+        <v>1716891599.418972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001188881773823584</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1084965294150613</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03487283935536081</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>858445912.6323829</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7751206442.554616</v>
+        <v>2737913383.989127</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002160687330028121</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
+        <v>0.2070272302424536</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0607730861650497</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1368956709.643002</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4945002559.964981</v>
+        <v>1157173031.370607</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004044405903433077</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.1210249050477547</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02298936332865466</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>578586527.4906912</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5687003736.609575</v>
+        <v>1157829891.318242</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001933250538762822</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
+        <v>0.1176256099744377</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03926567235865845</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>578914929.3070313</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7241945673.588133</v>
+        <v>2352353029.560114</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002850726129419716</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
+        <v>0.1187307631856803</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02473348076533183</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1176176548.314763</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5256144936.188113</v>
+        <v>2274921695.082923</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004633629868139354</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
+        <v>0.09641348834071502</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03089168810057957</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1137460912.351145</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4698692814.946293</v>
+        <v>2170681773.60199</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003398605713018752</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1215265163086552</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03269426513332101</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1085340840.941004</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4611041295.72078</v>
+        <v>1647775332.816672</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002791365969125335</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1799020980356298</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0321392931196527</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>823887714.1018537</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5123431665.741709</v>
+        <v>1177563892.75675</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004567115682076166</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1630299087404571</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05571690976083039</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>588781992.965821</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5748334235.350554</v>
+        <v>2739223790.035788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001497213491995273</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
+        <v>0.1433471476137345</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0366867149644697</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1369611896.576178</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6240166482.656448</v>
+        <v>3443684227.996927</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005274787225546402</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.08575443866985658</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04261368445375911</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1721842104.629786</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6940296072.191809</v>
+        <v>2088496859.243999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004618444148128537</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
+        <v>0.1522984846150673</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01676608027783192</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1044248519.32333</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5951706679.93213</v>
+        <v>2005769277.51142</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00181260857344451</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.09604285112287989</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02771565921378496</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1002884745.92739</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5024669476.545181</v>
+        <v>1621382486.102293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001216460660649455</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1949556246798338</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04336513640273546</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>810691195.3899279</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9081999253.903023</v>
+        <v>4477287618.489353</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004381973835446141</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1534054809576437</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04966866429708233</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2238643805.8235</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7470407627.865516</v>
+        <v>4013878028.445096</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003074088518512804</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1634830169337781</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03974417032449774</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2006939013.818845</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5406383304.788967</v>
+        <v>2927459190.190123</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003308587162376417</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
+        <v>0.0917482550453073</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02871806921809103</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1463729691.467226</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4950304396.159417</v>
+        <v>1397535539.61812</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005448713369350065</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1243956919155242</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03879189122647809</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>698767817.4525828</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6539915482.607228</v>
+        <v>3239483004.670976</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002889359998413667</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
+        <v>0.1435940610404975</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05126716497257451</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1619741544.818902</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5269922814.641469</v>
+        <v>974073196.765167</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005654417284980701</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1580615532742264</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04884047119351442</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>487036686.0147013</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7377971238.109539</v>
+        <v>3236815637.524916</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002065585003627762</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
+        <v>0.1146682031113073</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04690354205776223</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1618407919.76832</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7308435466.480252</v>
+        <v>3492117558.414045</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002856876844065679</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1301075512207353</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03019351981259546</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>2</v>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1746058777.347819</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4885907801.215819</v>
+        <v>3765283996.100275</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005137809273681807</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.15260535159994</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03438611864352413</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1882642043.398577</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6661682215.182309</v>
+        <v>4325475983.529125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003705302206009915</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
+        <v>0.1580458153991936</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0227056800475357</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2162737980.75249</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6004772819.630882</v>
+        <v>1181075164.797942</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002407095028237544</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1383332415927145</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04102359281655679</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>590537671.2376117</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8107184123.827829</v>
+        <v>2821762680.190888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00366135992665995</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
+        <v>0.1461447066817432</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02760010086886122</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1410881329.260222</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6131877042.113781</v>
+        <v>1740901172.625565</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001833642317719229</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1565794500194586</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0307554897941641</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>870450595.1710031</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7735002273.498104</v>
+        <v>3518191802.979589</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00375977469234225</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.1100246445386115</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0404646543199042</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1759095900.353028</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5062528298.48882</v>
+        <v>2625865355.772589</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003512935701153343</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1296204718039084</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03241711471098577</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1312932708.723845</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5232744084.364271</v>
+        <v>2374785616.651665</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005410787980068908</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
+        <v>0.1181983959236927</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02577377058030781</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1187392847.505739</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4399593303.762225</v>
+        <v>1286787136.917231</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003118714326952851</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1275324205598234</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04209688799708044</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>643393519.1631644</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>469</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4656948358.326362</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.07873019030229719</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0318528392281132</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>4</v>
       </c>
-      <c r="D63" t="n">
-        <v>490</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8821448105.753984</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.003733245269902439</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
+      <c r="J63" t="n">
+        <v>2328474211.935447</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4350179600.297002</v>
+        <v>3815804034.139478</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003453939148644488</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1626703056482718</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02396056555964625</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1907902039.636456</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6922011028.612503</v>
+        <v>4215428593.827359</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005906856043912383</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+        <v>0.1415796642835882</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01998885859295906</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2107714302.356097</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6478950109.180339</v>
+        <v>5367888235.818736</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002991906200455884</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
+        <v>0.1468640945667127</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05091144016113053</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2683944164.427153</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5513397029.181394</v>
+        <v>3047154742.272898</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00430676449442875</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.09177494380420997</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03328075691739133</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1523577385.085457</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8425037981.26073</v>
+        <v>4884989413.061888</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003153869070474343</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
+        <v>0.1592346422192863</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04107096844027519</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2442494755.625557</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4506298058.411658</v>
+        <v>2349374119.899085</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001201589308387455</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1584626790481182</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04452162046419809</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1174687109.698425</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>471</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2396482633.187452</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0974871104663782</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03511516168458036</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>4</v>
       </c>
-      <c r="D70" t="n">
-        <v>490</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7629925083.828949</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.003911584292644122</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
+      <c r="J70" t="n">
+        <v>1198241254.018636</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3588688919.065372</v>
+        <v>4694839526.972595</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002722243112256849</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1679216060008909</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0215618487226611</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2347419846.075096</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7700122484.066186</v>
+        <v>1824207650.112447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001632199706111541</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
+        <v>0.08507922247361842</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05122402113290979</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>912103799.4500057</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6265727742.117128</v>
+        <v>3431913493.916343</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0008863258490019961</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.1057554151914317</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05018040721325708</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>3</v>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1715956703.101579</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6573970968.319324</v>
+        <v>3445564994.274492</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003399457587538662</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0.1500203970175459</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02620481955545187</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>4</v>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1722782523.693862</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6414830660.310316</v>
+        <v>2312481336.559974</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003290543932205238</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
+        <v>0.1648121953745252</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03089838778205119</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1156240602.748681</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6534028305.107718</v>
+        <v>5041864516.413875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002297387951120072</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3</v>
+        <v>0.08033136198182725</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02130996704094062</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2520932286.313679</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6885313069.675479</v>
+        <v>1878323127.989048</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003906712386593914</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5</v>
+        <v>0.1228566553366901</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02438180617375884</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>939161607.2340497</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3258550886.501106</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1068021849650075</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04979575002819591</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5840162188.944367</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.003998347601322417</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1629275461.720432</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7657955799.078333</v>
+        <v>1368499829.071279</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001934257246437646</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
+        <v>0.137547975100121</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02954676425328859</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>684249925.4691992</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6201676557.590758</v>
+        <v>4925287931.55858</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003172540291933814</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>5</v>
+        <v>0.0971488611748898</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03316412197035392</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2462644010.926289</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7699133472.197628</v>
+        <v>4465659353.933456</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003427565225913047</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
+        <v>0.1048069961099789</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02333838607993323</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2232829657.158591</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7716683004.570855</v>
+        <v>4112115526.225609</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004253169900106712</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
+        <v>0.1965283939602012</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01828981089795135</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2056057796.320505</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7000483830.382215</v>
+        <v>2329332372.669058</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002617736101088845</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.1326324645097371</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03247576457325542</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1164666212.411944</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5704763361.757596</v>
+        <v>1931540411.980334</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005085695577103454</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
+        <v>0.09935776772078309</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03159691894704374</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>965770220.7564895</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5542135384.369124</v>
+        <v>2940610040.147687</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002730051118356324</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1192894975748992</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03934999590779024</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1470305073.364458</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>502</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2177367464.073996</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1721915369775678</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02044132978729529</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="D86" t="n">
-        <v>517</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8352649311.597638</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.002741498805693216</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+      <c r="J86" t="n">
+        <v>1088683784.050626</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3186017228.118493</v>
+        <v>1004111600.254213</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001485557492855775</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1477357952126734</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04311832096833076</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>502055805.1823534</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7881259651.390343</v>
+        <v>3241687453.03199</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004666758554588367</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
+        <v>0.1256817194395706</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03460249922682711</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1620843780.549513</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3144423506.030293</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.148776163637649</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03470177236040169</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6265971803.529947</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.004443878256525938</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1572211780.212886</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4604717050.687392</v>
+        <v>1946658359.05731</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002278279192983897</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1088378214979332</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03986634445562218</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>973329239.710322</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6213365450.244226</v>
+        <v>1481376461.652125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004396352824431652</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>5</v>
+        <v>0.1231074583151499</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04566981927674701</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>740688271.9539562</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5171792744.453523</v>
+        <v>2055493946.596695</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002937701249696005</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08661942358712818</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04242979994885943</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1027746923.418815</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6035383108.661654</v>
+        <v>3410877503.089089</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001193220953482397</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>6</v>
+        <v>0.1086840736966506</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04876308449378089</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1705438789.95787</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7098024815.00654</v>
+        <v>2230019652.832264</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001463137898628156</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
+        <v>0.1562566925545448</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03506828262190922</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1115009854.447228</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2876160697.525619</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.136000241446522</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05190263878283061</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7699076421.730935</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002709405387134751</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1438080357.212569</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9479803256.852169</v>
+        <v>2132177984.450109</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002394101115508019</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4</v>
+        <v>0.0935566527355625</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04462770280338427</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1066088964.844615</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6612660176.221815</v>
+        <v>4651617688.525793</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004512332570682356</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>4</v>
+        <v>0.1280938775260652</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02094726114438896</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2325808952.689253</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3194925002.051275</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1284643301026752</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03059707278049011</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>4</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9060349433.03993</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004523038584180896</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>6</v>
+      <c r="J98" t="n">
+        <v>1597462498.628319</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2568214849.975085</v>
+        <v>2902011073.462518</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004501045064193406</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09384292613243569</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02409883212034332</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1451005515.274627</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5510743822.534093</v>
+        <v>2928299164.051715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003536424459824961</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.119983041502169</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02328191392757332</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1464149566.854068</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7075746609.057268</v>
+        <v>2674077089.65252</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001671834631857255</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1608616508833315</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03761999051541428</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>5</v>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1337038590.542663</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1766746826.624039</v>
+        <v>1616791413.245639</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08226378707038573</v>
+        <v>0.1081798003664303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04053465578340477</v>
+        <v>0.04176030933164527</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>883373377.2979141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2334209767.328322</v>
+        <v>1724737899.920426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1350833201151505</v>
+        <v>0.1767578741669276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03118482526202928</v>
+        <v>0.0337339616881461</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1167104975.175175</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4848514382.05571</v>
+        <v>4083187998.097776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1507075843747647</v>
+        <v>0.1118689903884477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0360821908990847</v>
+        <v>0.035300019067027</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2424257265.022003</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3104683581.486868</v>
+        <v>2693337121.183532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1060948538451627</v>
+        <v>0.07325867116908723</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05068002903605277</v>
+        <v>0.03130164694062887</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1552341853.284095</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2810772929.625237</v>
+        <v>2593832016.869763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1193293577347466</v>
+        <v>0.1445579593026796</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0360039387605462</v>
+        <v>0.04476805906444683</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1405386406.356484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2559877999.09125</v>
+        <v>2799603095.691056</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07724497431653871</v>
+        <v>0.09477932810144572</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04809649198407522</v>
+        <v>0.04278977595615181</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1279939006.487536</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2400963097.374837</v>
+        <v>2423644143.275461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.152120370200443</v>
+        <v>0.1768346636016377</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02153484566052311</v>
+        <v>0.03228513082559904</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1200481544.641716</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1423643055.981505</v>
+        <v>2046695719.213025</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1651437607728747</v>
+        <v>0.1685789507079746</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02626726487810529</v>
+        <v>0.02899088882444073</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>711821634.2389027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5441379185.991182</v>
+        <v>5475939661.061434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.212293027667516</v>
+        <v>0.1557301887214431</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04976922633129701</v>
+        <v>0.05075786397609136</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2720689726.174743</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4208725907.101011</v>
+        <v>3324907285.294453</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1908149768889077</v>
+        <v>0.1534455159664798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04572833659233538</v>
+        <v>0.04309691698699249</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2104362980.53159</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2015686428.440979</v>
+        <v>2863491076.41412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1926601199722397</v>
+        <v>0.1381168598022621</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05275288265627145</v>
+        <v>0.05227448387916214</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1007843141.733174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4145002113.644402</v>
+        <v>4222494461.732865</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06333741326789402</v>
+        <v>0.07470974459237203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02302638279279318</v>
+        <v>0.02726871386440648</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2072501104.090168</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2548624800.442137</v>
+        <v>3833005718.754514</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1444369669014135</v>
+        <v>0.126903715851495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04354134840739126</v>
+        <v>0.03118172503578756</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1274312467.101947</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1752853364.575616</v>
+        <v>1811267956.429836</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08972020478827604</v>
+        <v>0.06877201218402917</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0469421575063415</v>
+        <v>0.03933267472472575</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>876426824.8169817</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2396403703.85447</v>
+        <v>1827566298.891932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1009883767621713</v>
+        <v>0.08903624187966286</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04295786373371538</v>
+        <v>0.04268544782174855</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1198201891.676145</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5260902534.710891</v>
+        <v>3725906434.682821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1136266948148629</v>
+        <v>0.1393699307264801</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04682223379935822</v>
+        <v>0.04660887453875734</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2630451239.286698</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3163023752.932603</v>
+        <v>4003760746.499569</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1282576499103587</v>
+        <v>0.1140390616690944</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02140553766505985</v>
+        <v>0.03331902540744677</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1581511894.619766</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>883692754.9002677</v>
+        <v>1303017045.291183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1870176211325336</v>
+        <v>0.1393421334843843</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02621332362418649</v>
+        <v>0.02055099733728561</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>441846378.1310714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1764537156.707189</v>
+        <v>1955141120.000697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1369831422767463</v>
+        <v>0.1496980419761679</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02650436143499846</v>
+        <v>0.02110741197886293</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>882268629.4165541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2423976765.634023</v>
+        <v>2492508085.665263</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06835648071934573</v>
+        <v>0.0996524787190109</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04093900855701519</v>
+        <v>0.04205838006378967</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1211988377.946306</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2461706857.432396</v>
+        <v>3004914722.034342</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274047449067116</v>
+        <v>0.1077306875067238</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03925774836830589</v>
+        <v>0.04883581588218731</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1230853522.182834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979052392.8458724</v>
+        <v>1101025864.947425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1670982722739817</v>
+        <v>0.1245594609213402</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04315932989556406</v>
+        <v>0.03479950101230517</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489526269.8946419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3217847576.549134</v>
+        <v>3774884278.815741</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09159884499884677</v>
+        <v>0.1360929257753851</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0227338866516344</v>
+        <v>0.03041887280610682</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1608923808.535696</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1252964316.616964</v>
+        <v>1116103132.966322</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1057508417382756</v>
+        <v>0.08241704786685024</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02276585108481161</v>
+        <v>0.02346637072107001</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>626482163.7137982</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1210557191.855753</v>
+        <v>905304896.6013215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08596983952533144</v>
+        <v>0.08003195912472574</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03513148104405458</v>
+        <v>0.03131280701073275</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>605278619.2325065</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3941546892.763415</v>
+        <v>3479767095.479106</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354654220930843</v>
+        <v>0.1378259102539341</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01902335927845353</v>
+        <v>0.0192230380362316</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1970773459.129284</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2985036831.183327</v>
+        <v>2606446273.869186</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1349667636942262</v>
+        <v>0.1103407722889514</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04420667613982748</v>
+        <v>0.03875833813414589</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1492518425.214965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4246430375.742744</v>
+        <v>4480826125.195302</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1030128371945247</v>
+        <v>0.1417465708957769</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02965466343723201</v>
+        <v>0.0384294557409063</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2123215187.384659</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1510892695.041706</v>
+        <v>1829893270.754992</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1199771151035482</v>
+        <v>0.1340637609953553</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03036805474875383</v>
+        <v>0.0252700305484199</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>755446329.0193603</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1480049015.678334</v>
+        <v>1381609347.923289</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1076618505944019</v>
+        <v>0.07634151314212334</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05096835958459768</v>
+        <v>0.04634546087310035</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>740024393.041864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1716891599.418972</v>
+        <v>1679749901.41685</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1084965294150613</v>
+        <v>0.07283817683186074</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03487283935536081</v>
+        <v>0.03088899740886011</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>858445912.6323829</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2737913383.989127</v>
+        <v>2441831519.027536</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2070272302424536</v>
+        <v>0.2036185593740933</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0607730861650497</v>
+        <v>0.05725569602814571</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1368956709.643002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1157173031.370607</v>
+        <v>1304542554.032385</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1210249050477547</v>
+        <v>0.09717939644789131</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02298936332865466</v>
+        <v>0.0248605283741382</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>578586527.4906912</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1157829891.318242</v>
+        <v>1133829988.93618</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176256099744377</v>
+        <v>0.09686239855899337</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03926567235865845</v>
+        <v>0.03941856684296701</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>578914929.3070313</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2352353029.560114</v>
+        <v>3030770872.936513</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1187307631856803</v>
+        <v>0.1372680856769091</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02473348076533183</v>
+        <v>0.0254194635938611</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1176176548.314763</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2274921695.082923</v>
+        <v>2100466250.334343</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09641348834071502</v>
+        <v>0.09953347362645454</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03089168810057957</v>
+        <v>0.0403656240642498</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1137460912.351145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2170681773.60199</v>
+        <v>1627227340.917084</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1215265163086552</v>
+        <v>0.09829502594395652</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03269426513332101</v>
+        <v>0.03997463003148655</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1085340840.941004</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1647775332.816672</v>
+        <v>1944347659.516662</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1799020980356298</v>
+        <v>0.1455015022118851</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0321392931196527</v>
+        <v>0.02975866289132714</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>823887714.1018537</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1177563892.75675</v>
+        <v>1730763089.150061</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1630299087404571</v>
+        <v>0.09965898251474425</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05571690976083039</v>
+        <v>0.05230269971901901</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>588781992.965821</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2739223790.035788</v>
+        <v>2700305121.31904</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1433471476137345</v>
+        <v>0.121512921068407</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0366867149644697</v>
+        <v>0.04255376163393206</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1369611896.576178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3443684227.996927</v>
+        <v>2693334629.690938</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08575443866985658</v>
+        <v>0.1183105288897301</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04261368445375911</v>
+        <v>0.04288215258233543</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1721842104.629786</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2088496859.243999</v>
+        <v>2812383127.379597</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1522984846150673</v>
+        <v>0.1521345377461149</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01676608027783192</v>
+        <v>0.0248188262354644</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1044248519.32333</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2005769277.51142</v>
+        <v>2137194274.802075</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09604285112287989</v>
+        <v>0.06901993033726687</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02771565921378496</v>
+        <v>0.02406421418359419</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1002884745.92739</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1621382486.102293</v>
+        <v>2178197732.669763</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1949556246798338</v>
+        <v>0.1867438747955164</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04336513640273546</v>
+        <v>0.04059982626728379</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>810691195.3899279</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4477287618.489353</v>
+        <v>5662104438.031364</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1534054809576437</v>
+        <v>0.1228707025527696</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04966866429708233</v>
+        <v>0.03932686045924296</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2238643805.8235</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4013878028.445096</v>
+        <v>5020316786.206045</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1634830169337781</v>
+        <v>0.147012725606071</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03974417032449774</v>
+        <v>0.04773319518232912</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2006939013.818845</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2927459190.190123</v>
+        <v>3581223608.073956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0917482550453073</v>
+        <v>0.06993094058943258</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02871806921809103</v>
+        <v>0.02674623873216946</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1463729691.467226</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1397535539.61812</v>
+        <v>1713391499.674276</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1243956919155242</v>
+        <v>0.180317519062492</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03879189122647809</v>
+        <v>0.02720950028220126</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>698767817.4525828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3239483004.670976</v>
+        <v>2887518024.952272</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1435940610404975</v>
+        <v>0.1536720839015393</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05126716497257451</v>
+        <v>0.04608029681141536</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1619741544.818902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974073196.765167</v>
+        <v>1222511491.212139</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1580615532742264</v>
+        <v>0.1470147196223086</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04884047119351442</v>
+        <v>0.04957273920426775</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>487036686.0147013</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3236815637.524916</v>
+        <v>3956141648.54309</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1146682031113073</v>
+        <v>0.09930255551074658</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04690354205776223</v>
+        <v>0.04434494513623266</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1618407919.76832</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3492117558.414045</v>
+        <v>3006356523.111619</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1301075512207353</v>
+        <v>0.1591007371860214</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03019351981259546</v>
+        <v>0.02303981376101637</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1746058777.347819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3765283996.100275</v>
+        <v>3725262476.896898</v>
       </c>
       <c r="F54" t="n">
-        <v>0.15260535159994</v>
+        <v>0.1134022222545118</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03438611864352413</v>
+        <v>0.05227830219333116</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1882642043.398577</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4325475983.529125</v>
+        <v>4913293237.999715</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1580458153991936</v>
+        <v>0.2089779509637185</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0227056800475357</v>
+        <v>0.0220684975853667</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2162737980.75249</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181075164.797942</v>
+        <v>1427525079.453175</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1383332415927145</v>
+        <v>0.133709841611546</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04102359281655679</v>
+        <v>0.04441040075578129</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>590537671.2376117</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2821762680.190888</v>
+        <v>3133301144.97635</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461447066817432</v>
+        <v>0.1625272651730038</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02760010086886122</v>
+        <v>0.0267710143502822</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1410881329.260222</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1740901172.625565</v>
+        <v>1835403972.405919</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565794500194586</v>
+        <v>0.1318500076309718</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0307554897941641</v>
+        <v>0.03785378504266152</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>870450595.1710031</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3518191802.979589</v>
+        <v>3300323162.979695</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1100246445386115</v>
+        <v>0.1181457127080394</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0404646543199042</v>
+        <v>0.03439311619493883</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1759095900.353028</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2625865355.772589</v>
+        <v>3231339355.481744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1296204718039084</v>
+        <v>0.1568004277632889</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03241711471098577</v>
+        <v>0.02698430234512763</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1312932708.723845</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2374785616.651665</v>
+        <v>2960105285.806137</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1181983959236927</v>
+        <v>0.1347797479967432</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02577377058030781</v>
+        <v>0.03214407482735396</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1187392847.505739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1286787136.917231</v>
+        <v>1429858239.379653</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275324205598234</v>
+        <v>0.1618019257068444</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04209688799708044</v>
+        <v>0.04310261877628806</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>643393519.1631644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4656948358.326362</v>
+        <v>4916999796.980496</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07873019030229719</v>
+        <v>0.0905315985076465</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0318528392281132</v>
+        <v>0.03621387894182667</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2328474211.935447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3815804034.139478</v>
+        <v>4369105064.049621</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1626703056482718</v>
+        <v>0.1495670762597656</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02396056555964625</v>
+        <v>0.03569123146648456</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1907902039.636456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4215428593.827359</v>
+        <v>4331561846.372712</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1415796642835882</v>
+        <v>0.1746334704271121</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01998885859295906</v>
+        <v>0.03111725664711799</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2107714302.356097</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5367888235.818736</v>
+        <v>5601357917.290207</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1468640945667127</v>
+        <v>0.1394476525791699</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05091144016113053</v>
+        <v>0.03161481283219464</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2683944164.427153</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3047154742.272898</v>
+        <v>2690613585.834654</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09177494380420997</v>
+        <v>0.1024146228681165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03328075691739133</v>
+        <v>0.04463283305654665</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1523577385.085457</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4884989413.061888</v>
+        <v>3934743006.243369</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1592346422192863</v>
+        <v>0.09841938936346431</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04107096844027519</v>
+        <v>0.04024680151459207</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2442494755.625557</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2349374119.899085</v>
+        <v>1631173029.081047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1584626790481182</v>
+        <v>0.1393800885975729</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04452162046419809</v>
+        <v>0.05161818494255142</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1174687109.698425</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2396482633.187452</v>
+        <v>2712177720.452416</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0974871104663782</v>
+        <v>0.07563238072435347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03511516168458036</v>
+        <v>0.04061943313492753</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1198241254.018636</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4694839526.972595</v>
+        <v>4754384047.797591</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1679216060008909</v>
+        <v>0.123620049056644</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0215618487226611</v>
+        <v>0.02156195598654424</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2347419846.075096</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1824207650.112447</v>
+        <v>2097333256.561669</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08507922247361842</v>
+        <v>0.07856937195523088</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05122402113290979</v>
+        <v>0.03724912855330265</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>912103799.4500057</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3431913493.916343</v>
+        <v>3230740435.163932</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1057554151914317</v>
+        <v>0.07212451780307365</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05018040721325708</v>
+        <v>0.03301056554973361</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1715956703.101579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3445564994.274492</v>
+        <v>3464472685.756507</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1500203970175459</v>
+        <v>0.1619179456183275</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02620481955545187</v>
+        <v>0.03223814332353805</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1722782523.693862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2312481336.559974</v>
+        <v>2505139341.43</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1648121953745252</v>
+        <v>0.1042435353657974</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03089838778205119</v>
+        <v>0.03670122779102174</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1156240602.748681</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5041864516.413875</v>
+        <v>4672791737.240227</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08033136198182725</v>
+        <v>0.1102370468231405</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02130996704094062</v>
+        <v>0.02185743211545669</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2520932286.313679</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1878323127.989048</v>
+        <v>1403357321.913846</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1228566553366901</v>
+        <v>0.1742235615779225</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02438180617375884</v>
+        <v>0.02731516652879356</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>939161607.2340497</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3258550886.501106</v>
+        <v>3684387760.688289</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1068021849650075</v>
+        <v>0.08647729387632705</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04979575002819591</v>
+        <v>0.03556984198528673</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1629275461.720432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1368499829.071279</v>
+        <v>1895300933.310739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.137547975100121</v>
+        <v>0.1755873894077011</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02954676425328859</v>
+        <v>0.03523668636198183</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>684249925.4691992</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4925287931.55858</v>
+        <v>3583245100.455423</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0971488611748898</v>
+        <v>0.09436247410671185</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03316412197035392</v>
+        <v>0.03154847355999678</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2462644010.926289</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4465659353.933456</v>
+        <v>5105481475.941439</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1048069961099789</v>
+        <v>0.09201367921229819</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02333838607993323</v>
+        <v>0.02251415813711403</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2232829657.158591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4112115526.225609</v>
+        <v>4746957381.522291</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1965283939602012</v>
+        <v>0.1786422636850549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01828981089795135</v>
+        <v>0.029514349932766</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2056057796.320505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2329332372.669058</v>
+        <v>2183869314.951775</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1326324645097371</v>
+        <v>0.1230949007682051</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03247576457325542</v>
+        <v>0.03170670007650828</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1164666212.411944</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1931540411.980334</v>
+        <v>2534899171.949494</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09935776772078309</v>
+        <v>0.1053698958717424</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03159691894704374</v>
+        <v>0.04951066153679631</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>965770220.7564895</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2940610040.147687</v>
+        <v>2441288185.857764</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1192894975748992</v>
+        <v>0.1205068833164088</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03934999590779024</v>
+        <v>0.03989087309208638</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1470305073.364458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2177367464.073996</v>
+        <v>2078347135.659119</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1721915369775678</v>
+        <v>0.1451847267420496</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02044132978729529</v>
+        <v>0.02592977604096381</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1088683784.050626</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1004111600.254213</v>
+        <v>1253782370.534047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1477357952126734</v>
+        <v>0.1328753088167704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04311832096833076</v>
+        <v>0.02835546836028802</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>502055805.1823534</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3241687453.03199</v>
+        <v>2951289843.814035</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1256817194395706</v>
+        <v>0.1555683115758415</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03460249922682711</v>
+        <v>0.03821776359513649</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1620843780.549513</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3144423506.030293</v>
+        <v>2549354568.42724</v>
       </c>
       <c r="F89" t="n">
-        <v>0.148776163637649</v>
+        <v>0.1597765437326039</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03470177236040169</v>
+        <v>0.03042363437829532</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1572211780.212886</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1946658359.05731</v>
+        <v>1900682903.585718</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1088378214979332</v>
+        <v>0.1376827004871639</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03986634445562218</v>
+        <v>0.04165904261305988</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>973329239.710322</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1481376461.652125</v>
+        <v>2014865178.768897</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1231074583151499</v>
+        <v>0.166464479067024</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04566981927674701</v>
+        <v>0.05704736227463937</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>740688271.9539562</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2055493946.596695</v>
+        <v>2789124804.832087</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08661942358712818</v>
+        <v>0.09601088301778762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04242979994885943</v>
+        <v>0.04497021635210195</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1027746923.418815</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3410877503.089089</v>
+        <v>4743019782.595394</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1086840736966506</v>
+        <v>0.1162431370887492</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04876308449378089</v>
+        <v>0.04156094374833715</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1705438789.95787</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2230019652.832264</v>
+        <v>2526257078.94056</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1562566925545448</v>
+        <v>0.1549043873734716</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03506828262190922</v>
+        <v>0.0267416635487053</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1115009854.447228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2876160697.525619</v>
+        <v>2905332615.520706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136000241446522</v>
+        <v>0.083986308745639</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05190263878283061</v>
+        <v>0.03772526793263601</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1438080357.212569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2132177984.450109</v>
+        <v>1670559147.200648</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0935566527355625</v>
+        <v>0.1245734674072804</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04462770280338427</v>
+        <v>0.04169708501501345</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1066088964.844615</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4651617688.525793</v>
+        <v>3719259408.266363</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1280938775260652</v>
+        <v>0.1189378019114233</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02094726114438896</v>
+        <v>0.02844618878311713</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2325808952.689253</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3194925002.051275</v>
+        <v>3155243525.065506</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1284643301026752</v>
+        <v>0.1224714250282807</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03059707278049011</v>
+        <v>0.02695343721499268</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1597462498.628319</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2902011073.462518</v>
+        <v>2268607259.219716</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09384292613243569</v>
+        <v>0.1052394866318365</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02409883212034332</v>
+        <v>0.02500345850719292</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1451005515.274627</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2928299164.051715</v>
+        <v>3815314165.666202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.119983041502169</v>
+        <v>0.168204707959113</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02328191392757332</v>
+        <v>0.02602772771556593</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1464149566.854068</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2674077089.65252</v>
+        <v>2572219724.74495</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1608616508833315</v>
+        <v>0.1778485137703388</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03761999051541428</v>
+        <v>0.05689708758781451</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1337038590.542663</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1616791413.245639</v>
+        <v>1611188380.942548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1081798003664303</v>
+        <v>0.1027134569678057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04176030933164527</v>
+        <v>0.03472594899382542</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1724737899.920426</v>
+        <v>2239916609.803239</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1767578741669276</v>
+        <v>0.1585155867267534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0337339616881461</v>
+        <v>0.04397058296135069</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4083187998.097776</v>
+        <v>5151776625.287177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1118689903884477</v>
+        <v>0.1214112851853679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.035300019067027</v>
+        <v>0.03234177267950153</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2693337121.183532</v>
+        <v>2840370754.942143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07325867116908723</v>
+        <v>0.08841821092919262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03130164694062887</v>
+        <v>0.03871132706790482</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2593832016.869763</v>
+        <v>2566107754.638324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445579593026796</v>
+        <v>0.114473905902923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04476805906444683</v>
+        <v>0.04165251698638293</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2799603095.691056</v>
+        <v>2172656207.765708</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09477932810144572</v>
+        <v>0.07225540235843167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04278977595615181</v>
+        <v>0.03649232623994807</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2423644143.275461</v>
+        <v>3921219976.019467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1768346636016377</v>
+        <v>0.1396582185761887</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03228513082559904</v>
+        <v>0.02415028266440235</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2046695719.213025</v>
+        <v>1558123587.117142</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1685789507079746</v>
+        <v>0.1536170162369283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02899088882444073</v>
+        <v>0.03224714052158661</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5475939661.061434</v>
+        <v>4126011799.751718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1557301887214431</v>
+        <v>0.2047446918619246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05075786397609136</v>
+        <v>0.05421453069251338</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3324907285.294453</v>
+        <v>3198007871.278853</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1534455159664798</v>
+        <v>0.1868712381209308</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04309691698699249</v>
+        <v>0.03185615631859082</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2863491076.41412</v>
+        <v>2053571041.47677</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1381168598022621</v>
+        <v>0.1801218388632504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05227448387916214</v>
+        <v>0.03777427151617987</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4222494461.732865</v>
+        <v>3385115838.329051</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07470974459237203</v>
+        <v>0.09107346571366057</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02726871386440648</v>
+        <v>0.0314084093032934</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3833005718.754514</v>
+        <v>2381743093.125558</v>
       </c>
       <c r="F14" t="n">
-        <v>0.126903715851495</v>
+        <v>0.1163870288483572</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03118172503578756</v>
+        <v>0.03515704838525928</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1811267956.429836</v>
+        <v>1432155762.578187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06877201218402917</v>
+        <v>0.07986544952426541</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03933267472472575</v>
+        <v>0.02998767360585504</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1827566298.891932</v>
+        <v>2131881656.810741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08903624187966286</v>
+        <v>0.1050832394048063</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04268544782174855</v>
+        <v>0.03211457249417079</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3725906434.682821</v>
+        <v>3937297220.583279</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1393699307264801</v>
+        <v>0.1602484667340574</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04660887453875734</v>
+        <v>0.03463501194423359</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4003760746.499569</v>
+        <v>2665768349.75673</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1140390616690944</v>
+        <v>0.1463690160106602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03331902540744677</v>
+        <v>0.02255339034196774</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1303017045.291183</v>
+        <v>837962313.6405278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1393421334843843</v>
+        <v>0.1685329358370363</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02055099733728561</v>
+        <v>0.02213692389431305</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1955141120.000697</v>
+        <v>1793813860.26408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496980419761679</v>
+        <v>0.1496569695652661</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02110741197886293</v>
+        <v>0.02445575779102315</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2492508085.665263</v>
+        <v>2102499435.497275</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0996524787190109</v>
+        <v>0.09282752769967831</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04205838006378967</v>
+        <v>0.03268804464502501</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3004914722.034342</v>
+        <v>3377624949.273767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1077306875067238</v>
+        <v>0.105955248201366</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04883581588218731</v>
+        <v>0.04365243145074726</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1101025864.947425</v>
+        <v>1346790872.006734</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1245594609213402</v>
+        <v>0.1195386274684928</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03479950101230517</v>
+        <v>0.04733448214057216</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3774884278.815741</v>
+        <v>2589069551.526884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1360929257753851</v>
+        <v>0.09746908224976647</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03041887280610682</v>
+        <v>0.02377644505780926</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1116103132.966322</v>
+        <v>1360382921.681214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08241704786685024</v>
+        <v>0.07908974495493944</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02346637072107001</v>
+        <v>0.02715622835074253</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>905304896.6013215</v>
+        <v>1012437073.236704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08003195912472574</v>
+        <v>0.1099145931793195</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03131280701073275</v>
+        <v>0.02904569865547343</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3479767095.479106</v>
+        <v>3744393617.345348</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1378259102539341</v>
+        <v>0.1521708168782959</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0192230380362316</v>
+        <v>0.01900479677710895</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2606446273.869186</v>
+        <v>2928719646.162046</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1103407722889514</v>
+        <v>0.1324269900796253</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03875833813414589</v>
+        <v>0.04258894139302331</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4480826125.195302</v>
+        <v>5480256909.098536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1417465708957769</v>
+        <v>0.1368171263495274</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0384294557409063</v>
+        <v>0.02853441141976865</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1829893270.754992</v>
+        <v>1585711305.506678</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340637609953553</v>
+        <v>0.09310254412699052</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0252700305484199</v>
+        <v>0.03247357326094357</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1381609347.923289</v>
+        <v>1503785131.36533</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07634151314212334</v>
+        <v>0.09259809301238635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04634546087310035</v>
+        <v>0.05004301434902715</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1679749901.41685</v>
+        <v>1238777985.729069</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07283817683186074</v>
+        <v>0.07608065457037247</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03088899740886011</v>
+        <v>0.03063932865736094</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2441831519.027536</v>
+        <v>2204928907.109272</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2036185593740933</v>
+        <v>0.1291538255685978</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05725569602814571</v>
+        <v>0.06053430803429414</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1304542554.032385</v>
+        <v>1000326754.721244</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09717939644789131</v>
+        <v>0.07460690879611566</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0248605283741382</v>
+        <v>0.02039722402623847</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1133829988.93618</v>
+        <v>1253335453.586176</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09686239855899337</v>
+        <v>0.08585906662843291</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03941856684296701</v>
+        <v>0.03710155298621276</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3030770872.936513</v>
+        <v>2985978977.638251</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1372680856769091</v>
+        <v>0.1147570362849864</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0254194635938611</v>
+        <v>0.02488336568395795</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2100466250.334343</v>
+        <v>2393850049.691004</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09953347362645454</v>
+        <v>0.0916612606602329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0403656240642498</v>
+        <v>0.02851789442579902</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1627227340.917084</v>
+        <v>2015746761.762376</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09829502594395652</v>
+        <v>0.107997371552444</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03997463003148655</v>
+        <v>0.03213594208923392</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1944347659.516662</v>
+        <v>1555854771.710426</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1455015022118851</v>
+        <v>0.1525557577759624</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02975866289132714</v>
+        <v>0.02437301118624717</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1730763089.150061</v>
+        <v>1611109141.280881</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09965898251474425</v>
+        <v>0.1216066125831773</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05230269971901901</v>
+        <v>0.05074715334709339</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2700305121.31904</v>
+        <v>1995569549.778291</v>
       </c>
       <c r="F41" t="n">
-        <v>0.121512921068407</v>
+        <v>0.134638811226105</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04255376163393206</v>
+        <v>0.04231434617753155</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2693334629.690938</v>
+        <v>4041460565.738221</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1183105288897301</v>
+        <v>0.1259572021924139</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04288215258233543</v>
+        <v>0.03703218190360388</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2812383127.379597</v>
+        <v>2436306250.589033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1521345377461149</v>
+        <v>0.2050735542223602</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0248188262354644</v>
+        <v>0.01973251260010117</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2137194274.802075</v>
+        <v>2354406613.080898</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06901993033726687</v>
+        <v>0.0768195070699655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02406421418359419</v>
+        <v>0.03049710369181443</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2178197732.669763</v>
+        <v>2375834378.271898</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1867438747955164</v>
+        <v>0.1628512833863367</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04059982626728379</v>
+        <v>0.0423897972573959</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5662104438.031364</v>
+        <v>3743232650.062578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1228707025527696</v>
+        <v>0.1686270462571021</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03932686045924296</v>
+        <v>0.03802801697840893</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5020316786.206045</v>
+        <v>4478233422.446624</v>
       </c>
       <c r="F47" t="n">
-        <v>0.147012725606071</v>
+        <v>0.1563241526769443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04773319518232912</v>
+        <v>0.04270194914380879</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3581223608.073956</v>
+        <v>2857808112.442327</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06993094058943258</v>
+        <v>0.09344457591474545</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02674623873216946</v>
+        <v>0.02545293005239471</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1713391499.674276</v>
+        <v>1487703191.370822</v>
       </c>
       <c r="F49" t="n">
-        <v>0.180317519062492</v>
+        <v>0.1667760080898168</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02720950028220126</v>
+        <v>0.0330421193500428</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2887518024.952272</v>
+        <v>3425506358.529486</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1536720839015393</v>
+        <v>0.1560774325377715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04608029681141536</v>
+        <v>0.05220123977782885</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1222511491.212139</v>
+        <v>1162921404.326882</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1470147196223086</v>
+        <v>0.1688497433845024</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04957273920426775</v>
+        <v>0.05224076868825023</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3956141648.54309</v>
+        <v>4747901912.146746</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09930255551074658</v>
+        <v>0.08642525062347173</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04434494513623266</v>
+        <v>0.04503984203060529</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3006356523.111619</v>
+        <v>2533482858.078313</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1591007371860214</v>
+        <v>0.1716336946704895</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02303981376101637</v>
+        <v>0.0294589559682423</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3725262476.896898</v>
+        <v>3994414140.214067</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1134022222545118</v>
+        <v>0.1154983467558595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05227830219333116</v>
+        <v>0.03865073621845977</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4913293237.999715</v>
+        <v>2999041331.380174</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2089779509637185</v>
+        <v>0.1888373944194452</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0220684975853667</v>
+        <v>0.03112404436112617</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1427525079.453175</v>
+        <v>1873939985.689016</v>
       </c>
       <c r="F56" t="n">
-        <v>0.133709841611546</v>
+        <v>0.1190351163552746</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04441040075578129</v>
+        <v>0.04368837842007747</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3133301144.97635</v>
+        <v>3011218492.55841</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625272651730038</v>
+        <v>0.1386472317680806</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0267710143502822</v>
+        <v>0.02462702145900145</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1835403972.405919</v>
+        <v>1303603322.717927</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1318500076309718</v>
+        <v>0.1692643838109995</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03785378504266152</v>
+        <v>0.02840011124532745</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3300323162.979695</v>
+        <v>3435903640.955462</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1181457127080394</v>
+        <v>0.1024125775316692</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03439311619493883</v>
+        <v>0.03661317025509794</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3231339355.481744</v>
+        <v>2809122271.854192</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1568004277632889</v>
+        <v>0.1854023565123646</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02698430234512763</v>
+        <v>0.02871648560184191</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2960105285.806137</v>
+        <v>2591294749.380358</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1347797479967432</v>
+        <v>0.1604773171242538</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03214407482735396</v>
+        <v>0.02361831687799782</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1429858239.379653</v>
+        <v>1913603355.03376</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1618019257068444</v>
+        <v>0.1833706024133024</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04310261877628806</v>
+        <v>0.04963968538725829</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4916999796.980496</v>
+        <v>4137114593.365161</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0905315985076465</v>
+        <v>0.07685587812364436</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03621387894182667</v>
+        <v>0.03480639583596909</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4369105064.049621</v>
+        <v>4820351951.219713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1495670762597656</v>
+        <v>0.1566095604680783</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03569123146648456</v>
+        <v>0.03569617971639743</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4331561846.372712</v>
+        <v>4203849018.296539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1746334704271121</v>
+        <v>0.1331903158628429</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03111725664711799</v>
+        <v>0.02271312955162459</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5601357917.290207</v>
+        <v>3903778867.878526</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1394476525791699</v>
+        <v>0.1199680097410064</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03161481283219464</v>
+        <v>0.03172251847341264</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2690613585.834654</v>
+        <v>3179337516.060609</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1024146228681165</v>
+        <v>0.0631910016743842</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04463283305654665</v>
+        <v>0.03893699758709065</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3934743006.243369</v>
+        <v>4338750416.17919</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09841938936346431</v>
+        <v>0.1149790250687817</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04024680151459207</v>
+        <v>0.04698472238300572</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1631173029.081047</v>
+        <v>1816696996.765289</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1393800885975729</v>
+        <v>0.1369903625128144</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05161818494255142</v>
+        <v>0.0393076802667155</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2712177720.452416</v>
+        <v>2791087505.511024</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07563238072435347</v>
+        <v>0.09869926077257714</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04061943313492753</v>
+        <v>0.0369578308757352</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4754384047.797591</v>
+        <v>4173970445.603427</v>
       </c>
       <c r="F71" t="n">
-        <v>0.123620049056644</v>
+        <v>0.1840663132797377</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02156195598654424</v>
+        <v>0.02706976875925222</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2097333256.561669</v>
+        <v>1624305534.275928</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07856937195523088</v>
+        <v>0.07120101348508998</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03724912855330265</v>
+        <v>0.0468824751555762</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3230740435.163932</v>
+        <v>2425081064.988323</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07212451780307365</v>
+        <v>0.08575477701717278</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03301056554973361</v>
+        <v>0.05088532431601565</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3464472685.756507</v>
+        <v>2752216087.782424</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1619179456183275</v>
+        <v>0.1814204185518753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03223814332353805</v>
+        <v>0.03408434258508485</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2505139341.43</v>
+        <v>2503063710.963371</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1042435353657974</v>
+        <v>0.1039033737943498</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03670122779102174</v>
+        <v>0.03653574047029506</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4672791737.240227</v>
+        <v>3806053726.002292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102370468231405</v>
+        <v>0.1124720775561951</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02185743211545669</v>
+        <v>0.02294382524385912</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1403357321.913846</v>
+        <v>1406025429.695794</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1742235615779225</v>
+        <v>0.1208140381780738</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02731516652879356</v>
+        <v>0.01929703803644378</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3684387760.688289</v>
+        <v>3527427812.57039</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08647729387632705</v>
+        <v>0.08637978176265847</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03556984198528673</v>
+        <v>0.04921207375843913</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1895300933.310739</v>
+        <v>1761651914.394262</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1755873894077011</v>
+        <v>0.1638351730414951</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03523668636198183</v>
+        <v>0.02820000059805773</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3583245100.455423</v>
+        <v>4989874973.671641</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09436247410671185</v>
+        <v>0.09104178909983018</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03154847355999678</v>
+        <v>0.03668179045525023</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5105481475.941439</v>
+        <v>3809124230.000259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09201367921229819</v>
+        <v>0.1140107201590799</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02251415813711403</v>
+        <v>0.03091477957964322</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4746957381.522291</v>
+        <v>3977747377.319531</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1786422636850549</v>
+        <v>0.1748835822519473</v>
       </c>
       <c r="G82" t="n">
-        <v>0.029514349932766</v>
+        <v>0.02226306641010402</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2183869314.951775</v>
+        <v>1735121349.734509</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1230949007682051</v>
+        <v>0.1482147453834209</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03170670007650828</v>
+        <v>0.02962789712289093</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2534899171.949494</v>
+        <v>2409668121.141579</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1053698958717424</v>
+        <v>0.1003817924688789</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04951066153679631</v>
+        <v>0.04290625412016109</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2441288185.857764</v>
+        <v>2930229402.411361</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1205068833164088</v>
+        <v>0.1247371110135431</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03989087309208638</v>
+        <v>0.04279139582151008</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2078347135.659119</v>
+        <v>1976523040.939276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1451847267420496</v>
+        <v>0.1455707708112144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02592977604096381</v>
+        <v>0.01780319011532933</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1253782370.534047</v>
+        <v>1459426531.723344</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1328753088167704</v>
+        <v>0.1302388614060209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02835546836028802</v>
+        <v>0.0363664303382733</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2951289843.814035</v>
+        <v>2487995868.89429</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1555683115758415</v>
+        <v>0.1136344540317459</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03821776359513649</v>
+        <v>0.03279959872515146</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2549354568.42724</v>
+        <v>2743873926.874025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1597765437326039</v>
+        <v>0.1166989012322441</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03042363437829532</v>
+        <v>0.03295377890761462</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1900682903.585718</v>
+        <v>1559998327.585487</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1376827004871639</v>
+        <v>0.1213053114676844</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04165904261305988</v>
+        <v>0.04360858629276653</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014865178.768897</v>
+        <v>1627146245.675415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166464479067024</v>
+        <v>0.171751384803073</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05704736227463937</v>
+        <v>0.04225114998274512</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2789124804.832087</v>
+        <v>2077105922.317874</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09601088301778762</v>
+        <v>0.1049616675987319</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04497021635210195</v>
+        <v>0.04439826261617435</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4743019782.595394</v>
+        <v>4257547931.734211</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1162431370887492</v>
+        <v>0.1382080801574221</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04156094374833715</v>
+        <v>0.05032581622328028</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2526257078.94056</v>
+        <v>1711174641.928592</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1549043873734716</v>
+        <v>0.144589881100542</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0267416635487053</v>
+        <v>0.03407450919559744</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2905332615.520706</v>
+        <v>3181181810.759532</v>
       </c>
       <c r="F95" t="n">
-        <v>0.083986308745639</v>
+        <v>0.09043761902154329</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03772526793263601</v>
+        <v>0.05295253623609851</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1670559147.200648</v>
+        <v>2355549361.445334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245734674072804</v>
+        <v>0.134195298925821</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04169708501501345</v>
+        <v>0.02987049218125636</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3719259408.266363</v>
+        <v>4679263039.913456</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189378019114233</v>
+        <v>0.1273901540853704</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02844618878311713</v>
+        <v>0.0270379357930979</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3155243525.065506</v>
+        <v>3739888993.594151</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224714250282807</v>
+        <v>0.1153341388273168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02695343721499268</v>
+        <v>0.02409812184294899</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2268607259.219716</v>
+        <v>3355619616.409138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1052394866318365</v>
+        <v>0.102794058593189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02500345850719292</v>
+        <v>0.03423188383545728</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3815314165.666202</v>
+        <v>4038699951.161725</v>
       </c>
       <c r="F100" t="n">
-        <v>0.168204707959113</v>
+        <v>0.1436111207044593</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02602772771556593</v>
+        <v>0.01925782038105214</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2572219724.74495</v>
+        <v>2957342644.69928</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1778485137703388</v>
+        <v>0.1953326687410452</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05689708758781451</v>
+        <v>0.05329350387723614</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1611188380.942548</v>
+        <v>2101325449.195966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1027134569678057</v>
+        <v>0.1145966935172619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03472594899382542</v>
+        <v>0.03481036048763985</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2239916609.803239</v>
+        <v>2204364774.249154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1585155867267534</v>
+        <v>0.1727094002817923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04397058296135069</v>
+        <v>0.04396872982959701</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5151776625.287177</v>
+        <v>3481042361.737748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214112851853679</v>
+        <v>0.1506309175685483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03234177267950153</v>
+        <v>0.03777029168283803</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>183.3211250849621</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2840370754.942143</v>
+        <v>3614044455.45909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08841821092919262</v>
+        <v>0.1074896018152502</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03871132706790482</v>
+        <v>0.04952007220984259</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>205.3731008355104</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2566107754.638324</v>
+        <v>2771510713.236032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114473905902923</v>
+        <v>0.09267059133446251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04165251698638293</v>
+        <v>0.03692013484993072</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2172656207.765708</v>
+        <v>2971943203.595283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07225540235843167</v>
+        <v>0.08161996620033808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03649232623994807</v>
+        <v>0.03666115568943812</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +715,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3921219976.019467</v>
+        <v>2481323602.260124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1396582185761887</v>
+        <v>0.1668219974737467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02415028266440235</v>
+        <v>0.02201903906767113</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>87.23992399747964</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1558123587.117142</v>
+        <v>2220883164.578997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1536170162369283</v>
+        <v>0.1668730240490789</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03224714052158661</v>
+        <v>0.03633497551147986</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +787,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4126011799.751718</v>
+        <v>3778434370.231529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2047446918619246</v>
+        <v>0.1308982069062748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05421453069251338</v>
+        <v>0.0423693984783536</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0696216308253</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3198007871.278853</v>
+        <v>4048615477.965217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1868712381209308</v>
+        <v>0.1565131589091151</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03185615631859082</v>
+        <v>0.04940004431503438</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2053571041.47677</v>
+        <v>3091700038.079156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1801218388632504</v>
+        <v>0.1982605389046096</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03777427151617987</v>
+        <v>0.03573284387558644</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3385115838.329051</v>
+        <v>3690207583.28658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09107346571366057</v>
+        <v>0.06498759629554766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0314084093032934</v>
+        <v>0.02292682788556653</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2381743093.125558</v>
+        <v>3532253393.775079</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1163870288483572</v>
+        <v>0.1183408114724506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03515704838525928</v>
+        <v>0.0320389676855853</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1432155762.578187</v>
+        <v>1442648875.813256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07986544952426541</v>
+        <v>0.08540066545165946</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02998767360585504</v>
+        <v>0.03178904775941115</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131881656.810741</v>
+        <v>1759140950.574782</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1050832394048063</v>
+        <v>0.1105535386308359</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03211457249417079</v>
+        <v>0.04624408443361404</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3937297220.583279</v>
+        <v>4540885720.227606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1602484667340574</v>
+        <v>0.1651440517700139</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03463501194423359</v>
+        <v>0.03822664320773166</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2665768349.75673</v>
+        <v>2681259809.677404</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1463690160106602</v>
+        <v>0.1664510444154578</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02255339034196774</v>
+        <v>0.02231476101859429</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837962313.6405278</v>
+        <v>1006868257.689819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1685329358370363</v>
+        <v>0.1299052752091278</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02213692389431305</v>
+        <v>0.01820055293730692</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1793813860.26408</v>
+        <v>2364149799.139853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496569695652661</v>
+        <v>0.1500345905593828</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02445575779102315</v>
+        <v>0.03067364114723218</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2102499435.497275</v>
+        <v>2137383790.960986</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09282752769967831</v>
+        <v>0.09206831366764807</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03268804464502501</v>
+        <v>0.03888748727287331</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3377624949.273767</v>
+        <v>4016638899.102311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.105955248201366</v>
+        <v>0.09841716655573329</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04365243145074726</v>
+        <v>0.03767495098748217</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1346790872.006734</v>
+        <v>1131037966.459455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1195386274684928</v>
+        <v>0.1538116803584121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04733448214057216</v>
+        <v>0.04564859366012852</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2589069551.526884</v>
+        <v>3073093755.598563</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09746908224976647</v>
+        <v>0.1424673573484298</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02377644505780926</v>
+        <v>0.03267097639739663</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1360382921.681214</v>
+        <v>1372054714.987231</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07908974495493944</v>
+        <v>0.09512146377455429</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02715622835074253</v>
+        <v>0.02563246706677142</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1012437073.236704</v>
+        <v>1286465581.270399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1099145931793195</v>
+        <v>0.1061368685863572</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02904569865547343</v>
+        <v>0.02464158021986317</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3744393617.345348</v>
+        <v>4226192971.513466</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1521708168782959</v>
+        <v>0.1271205780206869</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01900479677710895</v>
+        <v>0.02448393214220516</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.5519111539267</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2928719646.162046</v>
+        <v>2438674681.852843</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1324269900796253</v>
+        <v>0.09723607264162512</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04258894139302331</v>
+        <v>0.03401910625048305</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>87.39271851752692</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5480256909.098536</v>
+        <v>4543182573.39081</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1368171263495274</v>
+        <v>0.1139115883892908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02853441141976865</v>
+        <v>0.0384664169039147</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9646406501916</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1585711305.506678</v>
+        <v>2178081038.755393</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09310254412699052</v>
+        <v>0.1163856205266059</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03247357326094357</v>
+        <v>0.03996642071024899</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1503785131.36533</v>
+        <v>1088618385.545971</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09259809301238635</v>
+        <v>0.09068439597658347</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05004301434902715</v>
+        <v>0.03252996691942496</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1238777985.729069</v>
+        <v>1596725465.069016</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07608065457037247</v>
+        <v>0.1022698943119813</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03063932865736094</v>
+        <v>0.03664620535443813</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2204928907.109272</v>
+        <v>2354159785.420959</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1291538255685978</v>
+        <v>0.1686582321198319</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06053430803429414</v>
+        <v>0.04633344726854477</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1000326754.721244</v>
+        <v>1342659913.734607</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07460690879611566</v>
+        <v>0.08995159625811415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02039722402623847</v>
+        <v>0.01962192712554182</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1253335453.586176</v>
+        <v>1093262712.787431</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585906662843291</v>
+        <v>0.1049085751027108</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03710155298621276</v>
+        <v>0.04185817811822543</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2985978977.638251</v>
+        <v>2042732891.006279</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1147570362849864</v>
+        <v>0.1389476840849289</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02488336568395795</v>
+        <v>0.01972245193632864</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2393850049.691004</v>
+        <v>2274200075.603904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0916612606602329</v>
+        <v>0.08454745266327948</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02851789442579902</v>
+        <v>0.0339280098280098</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015746761.762376</v>
+        <v>1496742388.88964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.107997371552444</v>
+        <v>0.1107436691258334</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03213594208923392</v>
+        <v>0.02699674898399218</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1555854771.710426</v>
+        <v>1394018486.719866</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1525557577759624</v>
+        <v>0.1374728229180475</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02437301118624717</v>
+        <v>0.02985071753872966</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1611109141.280881</v>
+        <v>1669221018.960446</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216066125831773</v>
+        <v>0.1622325152741362</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05074715334709339</v>
+        <v>0.05637333719202392</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1995569549.778291</v>
+        <v>2077673026.916905</v>
       </c>
       <c r="F41" t="n">
-        <v>0.134638811226105</v>
+        <v>0.130389631206493</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04231434617753155</v>
+        <v>0.03648733411457366</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4041460565.738221</v>
+        <v>3445654088.104516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1259572021924139</v>
+        <v>0.1120455578310562</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03703218190360388</v>
+        <v>0.03118975361294233</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>174.8587441757119</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2436306250.589033</v>
+        <v>2888580864.963947</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2050735542223602</v>
+        <v>0.1970801749465268</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01973251260010117</v>
+        <v>0.02395827790090953</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2354406613.080898</v>
+        <v>1475019859.55375</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0768195070699655</v>
+        <v>0.07734650366881127</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03049710369181443</v>
+        <v>0.03125856735119906</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2375834378.271898</v>
+        <v>2352359119.417028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1628512833863367</v>
+        <v>0.1583475082259627</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0423897972573959</v>
+        <v>0.04467295827897552</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3743232650.062578</v>
+        <v>3803885693.045076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1686270462571021</v>
+        <v>0.1665041470396634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03802801697840893</v>
+        <v>0.05958052188910538</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4478233422.446624</v>
+        <v>4398478205.275788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1563241526769443</v>
+        <v>0.1627311094974411</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04270194914380879</v>
+        <v>0.05765513249174651</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2857808112.442327</v>
+        <v>4067841332.032982</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09344457591474545</v>
+        <v>0.09502166148407476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02545293005239471</v>
+        <v>0.03782749697352329</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="n">
+        <v>210.488799887334</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1487703191.370822</v>
+        <v>1605425357.665432</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1667760080898168</v>
+        <v>0.1739533675434664</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0330421193500428</v>
+        <v>0.0308787649972481</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3425506358.529486</v>
+        <v>4194811581.06053</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1560774325377715</v>
+        <v>0.1212736100413168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05220123977782885</v>
+        <v>0.04472290540129539</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1162921404.326882</v>
+        <v>1500474117.431571</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1688497433845024</v>
+        <v>0.1747561709929655</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05224076868825023</v>
+        <v>0.03725850726299805</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4747901912.146746</v>
+        <v>3442850378.140563</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08642525062347173</v>
+        <v>0.1137601734148746</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04503984203060529</v>
+        <v>0.05223295062273525</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15</v>
+      </c>
+      <c r="K52" t="n">
+        <v>191.4300292865624</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2533482858.078313</v>
+        <v>3355648921.288469</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1716336946704895</v>
+        <v>0.1600553313117517</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0294589559682423</v>
+        <v>0.02596822869300603</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15</v>
+      </c>
+      <c r="K53" t="n">
+        <v>155.4191247129942</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3994414140.214067</v>
+        <v>4851027187.482</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1154983467558595</v>
+        <v>0.1652493186594159</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03865073621845977</v>
+        <v>0.04550544147668502</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>2999041331.380174</v>
+        <v>3415740764.047611</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1888373944194452</v>
+        <v>0.2136738336876428</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03112404436112617</v>
+        <v>0.02171861155822147</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1873939985.689016</v>
+        <v>1593453492.544413</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1190351163552746</v>
+        <v>0.156626727573604</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04368837842007747</v>
+        <v>0.04042981193604719</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3011218492.55841</v>
+        <v>3236174787.144417</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1386472317680806</v>
+        <v>0.1690691066090318</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02462702145900145</v>
+        <v>0.02532314397344486</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15</v>
+      </c>
+      <c r="K57" t="n">
+        <v>148.2150569660753</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1303603322.717927</v>
+        <v>1768212815.913849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1692643838109995</v>
+        <v>0.1486650612132357</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02840011124532745</v>
+        <v>0.03117642681168833</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3435903640.955462</v>
+        <v>4713831671.663321</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1024125775316692</v>
+        <v>0.1057216578526831</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03661317025509794</v>
+        <v>0.03742225552025691</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2809122271.854192</v>
+        <v>2289272693.619625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1854023565123646</v>
+        <v>0.2025440244878006</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02871648560184191</v>
+        <v>0.02279898273899627</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2591294749.380358</v>
+        <v>2322450849.421456</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604773171242538</v>
+        <v>0.1194039536073924</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02361831687799782</v>
+        <v>0.03030520670776411</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913603355.03376</v>
+        <v>1977965406.992827</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1833706024133024</v>
+        <v>0.1656773271342898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04963968538725829</v>
+        <v>0.04933297055084827</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4137114593.365161</v>
+        <v>3984661938.72837</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07685587812364436</v>
+        <v>0.1041134271396427</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03480639583596909</v>
+        <v>0.03877126947419837</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>15</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.3906498734952</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4820351951.219713</v>
+        <v>5320635883.347601</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1566095604680783</v>
+        <v>0.1346281323808361</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03569617971639743</v>
+        <v>0.03445813494261027</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.2134144309657</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4203849018.296539</v>
+        <v>4502251126.394425</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1331903158628429</v>
+        <v>0.1488994871508415</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02271312955162459</v>
+        <v>0.01962119589973061</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>16</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3903778867.878526</v>
+        <v>4595901130.741844</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1199680097410064</v>
+        <v>0.1495324950534745</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03172251847341264</v>
+        <v>0.04982278974967777</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.7563909839524</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3179337516.060609</v>
+        <v>3326902723.321657</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0631910016743842</v>
+        <v>0.09723990587964784</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03893699758709065</v>
+        <v>0.03525500027801257</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4338750416.17919</v>
+        <v>5514812891.022202</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1149790250687817</v>
+        <v>0.1310537681632863</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04698472238300572</v>
+        <v>0.03302705680162141</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.1367804831509</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1816696996.765289</v>
+        <v>1550493548.557646</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1369903625128144</v>
+        <v>0.1549495643956317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0393076802667155</v>
+        <v>0.04878927509016293</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2791087505.511024</v>
+        <v>2989746082.910934</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09869926077257714</v>
+        <v>0.06721570177639112</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0369578308757352</v>
+        <v>0.03387396105468582</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4173970445.603427</v>
+        <v>3983257100.464986</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1840663132797377</v>
+        <v>0.1747411453287927</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02706976875925222</v>
+        <v>0.0240186234911373</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>16</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5668868186232</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1624305534.275928</v>
+        <v>1462156445.843006</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07120101348508998</v>
+        <v>0.07372719540043736</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0468824751555762</v>
+        <v>0.04272918364870864</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2425081064.988323</v>
+        <v>3161143718.028015</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08575477701717278</v>
+        <v>0.0806399807864796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05088532431601565</v>
+        <v>0.0348680722813472</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2752216087.782424</v>
+        <v>3353997592.238148</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814204185518753</v>
+        <v>0.1621976013235007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03408434258508485</v>
+        <v>0.02564402934426415</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2503063710.963371</v>
+        <v>2444872921.875917</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1039033737943498</v>
+        <v>0.1536140249733093</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03653574047029506</v>
+        <v>0.03797877289967207</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3806053726.002292</v>
+        <v>3717054841.058093</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1124720775561951</v>
+        <v>0.1215445699722348</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02294382524385912</v>
+        <v>0.0221374613172699</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>15</v>
+      </c>
+      <c r="K76" t="n">
+        <v>165.1644731158264</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1406025429.695794</v>
+        <v>2130190414.763291</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1208140381780738</v>
+        <v>0.1664772103457624</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01929703803644378</v>
+        <v>0.0211527404300627</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3527427812.57039</v>
+        <v>4583656126.301389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08637978176265847</v>
+        <v>0.1251966770745027</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04921207375843913</v>
+        <v>0.04916482447173893</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>16</v>
+      </c>
+      <c r="K78" t="n">
+        <v>213.8966542198018</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3234,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1761651914.394262</v>
+        <v>1682464892.886767</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1638351730414951</v>
+        <v>0.1697321112846345</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02820000059805773</v>
+        <v>0.02915107092150711</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3269,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4989874973.671641</v>
+        <v>4126302621.073404</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09104178909983018</v>
+        <v>0.07098169111937863</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03668179045525023</v>
+        <v>0.03071895410809983</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>16</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3809124230.000259</v>
+        <v>4743709259.84211</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140107201590799</v>
+        <v>0.132403540882358</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03091477957964322</v>
+        <v>0.03053091877519208</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>16</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3977747377.319531</v>
+        <v>5287647727.34971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1748835822519473</v>
+        <v>0.1399093141586927</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02226306641010402</v>
+        <v>0.02037579836873592</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>16</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.3453703863055</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1735121349.734509</v>
+        <v>2333252970.540749</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1482147453834209</v>
+        <v>0.1329288355812097</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02962789712289093</v>
+        <v>0.0449373137094347</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2409668121.141579</v>
+        <v>1610811529.299788</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1003817924688789</v>
+        <v>0.1116422880090926</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04290625412016109</v>
+        <v>0.04316798122383218</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2930229402.411361</v>
+        <v>2734351780.222202</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1247371110135431</v>
+        <v>0.159270321142027</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04279139582151008</v>
+        <v>0.0492542758692853</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1976523040.939276</v>
+        <v>1826860361.811917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1455707708112144</v>
+        <v>0.1059377139699327</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01780319011532933</v>
+        <v>0.02225733593926404</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1459426531.723344</v>
+        <v>1149145394.360953</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1302388614060209</v>
+        <v>0.13095718554148</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0363664303382733</v>
+        <v>0.03328086578193815</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2487995868.89429</v>
+        <v>3110013231.505877</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1136344540317459</v>
+        <v>0.1598027522156071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03279959872515146</v>
+        <v>0.02743737000373507</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2743873926.874025</v>
+        <v>3463970484.082839</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166989012322441</v>
+        <v>0.1205882474458574</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03295377890761462</v>
+        <v>0.02741258472513327</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1559998327.585487</v>
+        <v>2011683826.113766</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1213053114676844</v>
+        <v>0.1128237771728804</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04360858629276653</v>
+        <v>0.05391019232640683</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1627146245.675415</v>
+        <v>2031780596.7602</v>
       </c>
       <c r="F91" t="n">
-        <v>0.171751384803073</v>
+        <v>0.1687551564369907</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04225114998274512</v>
+        <v>0.06043066755453782</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2077105922.317874</v>
+        <v>3002689286.839421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1049616675987319</v>
+        <v>0.1081157578547532</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04439826261617435</v>
+        <v>0.0429845535617109</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4257547931.734211</v>
+        <v>3582073167.691095</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382080801574221</v>
+        <v>0.09280351245149072</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05032581622328028</v>
+        <v>0.04700529957594689</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>16</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1711174641.928592</v>
+        <v>2466768979.510203</v>
       </c>
       <c r="F94" t="n">
-        <v>0.144589881100542</v>
+        <v>0.1266423454864163</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03407450919559744</v>
+        <v>0.02634377336116913</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3181181810.759532</v>
+        <v>2940923498.626904</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09043761902154329</v>
+        <v>0.1149065231598897</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05295253623609851</v>
+        <v>0.05299804747608534</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2355549361.445334</v>
+        <v>1886292918.506407</v>
       </c>
       <c r="F96" t="n">
-        <v>0.134195298925821</v>
+        <v>0.1319239456491781</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02987049218125636</v>
+        <v>0.035725263666379</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4679263039.913456</v>
+        <v>4654424868.753616</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1273901540853704</v>
+        <v>0.1154318078766316</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0270379357930979</v>
+        <v>0.0196581351529089</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>16</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3739888993.594151</v>
+        <v>2998597240.007636</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1153341388273168</v>
+        <v>0.08565496337053019</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02409812184294899</v>
+        <v>0.03251235312694824</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3355619616.409138</v>
+        <v>2346835909.385273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.102794058593189</v>
+        <v>0.116599136024357</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03423188383545728</v>
+        <v>0.02895745200948415</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4038699951.161725</v>
+        <v>4423118158.353446</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1436111207044593</v>
+        <v>0.1367353239628185</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01925782038105214</v>
+        <v>0.02737506141536786</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>16</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2957342644.69928</v>
+        <v>2934738529.823653</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1953326687410452</v>
+        <v>0.1984806596167914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05329350387723614</v>
+        <v>0.05638163870215866</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
